--- a/data/ply.xlsx
+++ b/data/ply.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xsuz\meister\aircraft-design\project\PyDesign\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E736B9B-CB1D-4F11-8384-57CF8B0C9033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204F4699-BF8E-4C90-B2F2-E4288F294253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="9" xr2:uid="{D5F2E16A-1363-40E9-BCF4-B882D10E2C18}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="4" activeTab="7" xr2:uid="{D5F2E16A-1363-40E9-BCF4-B882D10E2C18}"/>
   </bookViews>
   <sheets>
     <sheet name="documentaion" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <sheet name="MB" sheetId="8" r:id="rId7"/>
     <sheet name="Tail" sheetId="9" r:id="rId8"/>
     <sheet name="Elevator" sheetId="10" r:id="rId9"/>
-    <sheet name="Rudder" sheetId="11" r:id="rId10"/>
+    <sheet name="Elevator-案2" sheetId="12" r:id="rId10"/>
+    <sheet name="Rudder" sheetId="11" r:id="rId11"/>
+    <sheet name="Rudder-案2" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="35">
   <si>
     <t>PLY</t>
     <phoneticPr fontId="3"/>
@@ -150,12 +152,45 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>直交材</t>
+    <rPh sb="0" eb="3">
+      <t>チョッコウザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>多分こっち</t>
+    <rPh sb="0" eb="2">
+      <t>タブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>90/180</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リアスパ/尾翼桁</t>
+    <rPh sb="5" eb="8">
+      <t>ビヨクケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>90/180</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +260,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -267,7 +311,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,13 +337,16 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,15 +676,858 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A57790E-7590-4D7D-A340-4B8B48182B20}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C68E3B-E935-4C35-B062-0F83FF02051A}">
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>90</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>99</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>99</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A57790E-7590-4D7D-A340-4B8B48182B20}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>99</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>99</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910CC41A-10E9-49B1-8590-CBCDFE96466A}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>90</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>180</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>99</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>99</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>99</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.85</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -645,11 +1535,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F64BA69-0D28-47E2-A177-98D06A4519F1}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -800,6 +1690,33 @@
       </c>
       <c r="H5" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>200</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +3186,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -2749,13 +3666,13 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>90</v>
       </c>
-      <c r="C2" s="10">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
         <v>5</v>
       </c>
       <c r="F2" s="5">
@@ -2766,13 +3683,13 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>180</v>
       </c>
-      <c r="C3" s="10">
-        <v>0</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
         <v>5</v>
       </c>
       <c r="F3" s="5">
@@ -2800,13 +3717,13 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>180</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>0.8</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>5</v>
       </c>
       <c r="E5" s="6"/>
@@ -2818,13 +3735,13 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>45</v>
       </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
         <v>5</v>
       </c>
       <c r="F6" s="5">
@@ -2835,13 +3752,13 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>45</v>
       </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
         <v>5</v>
       </c>
       <c r="F7" s="5">
@@ -2852,13 +3769,13 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>180</v>
       </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
         <v>5</v>
       </c>
       <c r="E8" s="6"/>
@@ -2870,13 +3787,13 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>90</v>
       </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
         <v>5</v>
       </c>
       <c r="E9" s="6"/>
@@ -2888,13 +3805,13 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>90</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>0.7</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="5">
@@ -2905,13 +3822,13 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>90</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>1.7</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>2.6</v>
       </c>
       <c r="F11" s="5">
@@ -2922,13 +3839,13 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>99</v>
       </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
         <v>0.15</v>
       </c>
       <c r="F12" s="5">
@@ -2939,13 +3856,13 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>99</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>0.75</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>0.95</v>
       </c>
       <c r="E13" s="6"/>
@@ -2957,13 +3874,13 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>99</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>1.65</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>2.6</v>
       </c>
       <c r="E14" s="6"/>
@@ -2975,13 +3892,13 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>99</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>4.8499999999999996</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>5</v>
       </c>
       <c r="F15" s="5">
@@ -3128,7 +4045,7 @@
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
@@ -3151,8 +4068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59CA5D07-4CE7-4A4E-807A-A5CD8EC99CE3}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3197,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -3214,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="5">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="F3" s="5">
         <v>1</v>
@@ -3231,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -3313,10 +4230,10 @@
         <v>99</v>
       </c>
       <c r="C9" s="5">
-        <v>1.895</v>
+        <v>2.4</v>
       </c>
       <c r="D9" s="5">
-        <v>2.3050000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="F9" s="5">
         <v>5</v>
@@ -3330,10 +4247,10 @@
         <v>99</v>
       </c>
       <c r="C10" s="5">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D10" s="5">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="F10" s="5">
         <v>5</v>
@@ -3454,7 +4371,7 @@
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3463,7 +4380,7 @@
         <v>0.1</v>
       </c>
       <c r="B34" s="5">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="C34" s="5">
         <v>0.16500000000000001</v>
@@ -3477,12 +4394,267 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA8D114-10DA-451D-98BE-CD6D96FB11FD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F2" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>90</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.55</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.85</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>99</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>99</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.35</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B34" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
